--- a/Paired-T-Test-Example.xlsx
+++ b/Paired-T-Test-Example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://starkeyhearingtechnologies-my.sharepoint.com/personal/mark_biegert_starkey_com/Documents/Desktop/Toss/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{99FBD9C1-9286-49D9-9FEC-7390680D56DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72CF7EFF-9350-4CB8-99FA-88B3E865E98D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="14016" windowHeight="12336" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="57480" yWindow="1665" windowWidth="29040" windowHeight="15720" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
   <si>
     <t>FROM:</t>
   </si>
@@ -169,13 +169,22 @@
   </si>
   <si>
     <t>t Critical two-tail</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Analysis</t>
+  </si>
+  <si>
+    <t>Battery currrents in µA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -259,8 +268,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -309,8 +326,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -356,6 +385,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -373,7 +431,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="8"/>
@@ -383,12 +441,19 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Comment" xfId="9" xr:uid="{C4DDEBC2-DCD2-4316-AAE7-A5F6C47DBA99}"/>
@@ -406,7 +471,14 @@
     <cellStyle name="Title" xfId="1" builtinId="15" hidden="1"/>
     <cellStyle name="Total" xfId="6" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -639,27 +711,27 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Biegert Table Standard" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Biegert Standard Pivot Table" table="0" count="12" xr9:uid="{94886349-6B4A-4300-89B0-9F83C8B5183A}">
-      <tableStyleElement type="wholeTable" dxfId="18"/>
-      <tableStyleElement type="headerRow" dxfId="17"/>
-      <tableStyleElement type="totalRow" dxfId="16"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="15"/>
-      <tableStyleElement type="firstHeaderCell" dxfId="14"/>
-      <tableStyleElement type="firstSubtotalColumn" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+      <tableStyleElement type="wholeTable" dxfId="19"/>
+      <tableStyleElement type="headerRow" dxfId="18"/>
+      <tableStyleElement type="totalRow" dxfId="17"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="16"/>
+      <tableStyleElement type="firstHeaderCell" dxfId="15"/>
+      <tableStyleElement type="firstSubtotalColumn" dxfId="14"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="13"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="11"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="10"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="9"/>
+      <tableStyleElement type="pageFieldValues" dxfId="8"/>
     </tableStyle>
     <tableStyle name="Biegert Table Standard" pivot="0" count="7" xr9:uid="{95B43237-2845-4068-A415-A5A3E7804959}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="6"/>
+      <tableStyleElement type="totalRow" dxfId="5"/>
+      <tableStyleElement type="firstColumn" dxfId="4"/>
+      <tableStyleElement type="lastColumn" dxfId="3"/>
+      <tableStyleElement type="firstRowStripe" dxfId="2"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="1"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -683,6 +755,458 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1017273</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>17145</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2697D9C2-6E66-41FC-87D0-10C7E3A330C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="123825" y="0"/>
+          <a:ext cx="4672968" cy="535305"/>
+          <a:chOff x="10536556" y="342900"/>
+          <a:chExt cx="1571315" cy="542925"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="TextBox 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A032F514-9955-157F-D5B8-A99BA8900C5E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10536556" y="342900"/>
+            <a:ext cx="673240" cy="542925"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="bg2"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l">
+              <a:tabLst>
+                <a:tab pos="685800" algn="l"/>
+                <a:tab pos="914400" algn="l"/>
+              </a:tabLst>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>FROM: </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>	</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l">
+              <a:tabLst>
+                <a:tab pos="685800" algn="l"/>
+                <a:tab pos="914400" algn="l"/>
+              </a:tabLst>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>SUBJECT: </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>	</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l">
+              <a:tabLst>
+                <a:tab pos="685800" algn="l"/>
+                <a:tab pos="914400" algn="l"/>
+              </a:tabLst>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>DATE:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>	</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="TextBox 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CAC9246-30B6-8A2A-ABFA-63D6A93379B8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10818292" y="342900"/>
+            <a:ext cx="1289579" cy="539115"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg2"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="bg2"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" bIns="0" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l">
+              <a:tabLst>
+                <a:tab pos="685800" algn="l"/>
+                <a:tab pos="914400" algn="l"/>
+              </a:tabLst>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Mark Biegert</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l">
+              <a:tabLst>
+                <a:tab pos="685800" algn="l"/>
+                <a:tab pos="914400" algn="l"/>
+              </a:tabLst>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Are iPhone and Android Streaming Currents Equal?</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l">
+              <a:tabLst>
+                <a:tab pos="685800" algn="l"/>
+                <a:tab pos="914400" algn="l"/>
+              </a:tabLst>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>31-May-2024</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63FFE96D-C620-C1F4-1DAC-84891BBC9F29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1209675"/>
+          <a:ext cx="3048000" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>I extracted the following data from the</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> DeviceCurrents workbook. I extracted all measurements where both Android and iPhone data were taken.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D81162B-F236-9E81-B8B9-879C1A1B3E20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3781425" y="3952875"/>
+          <a:ext cx="4152900" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>A p-value of 0.54 indicates that there is a 54%</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> probability of getting this result if there is no difference in the means. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>So we fail to reject the null hypothesis, which is that the means are equal.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1087,7 +1611,46 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:txDef>
+      <a:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </a:spPr>
+      <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+      <a:lstStyle>
+        <a:defPPr algn="l">
+          <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:defRPr>
+        </a:defPPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </a:style>
+    </a:txDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
@@ -1102,292 +1665,292 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFCCFFCC"/>
   </sheetPr>
-  <dimension ref="A1:O29"/>
+  <dimension ref="B6:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G3" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11:I29"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="13" max="13" width="36.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.77734375" customWidth="1"/>
+    <col min="8" max="8" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="6" spans="2:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H10" s="10"/>
+      <c r="I10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11">
+        <v>1960.5555555555557</v>
+      </c>
+      <c r="J11">
+        <v>1927.1666666666667</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12">
+        <v>803053.20261437923</v>
+      </c>
+      <c r="J12">
+        <v>734541.5588235294</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13">
+        <v>18</v>
+      </c>
+      <c r="J13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C14" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14">
+        <v>0.96687365281432625</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B3" ca="1">HD_Date</f>
-        <v>30-May-2024</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H11" t="s">
+    </row>
+    <row r="16" spans="2:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="I11" t="s">
+      <c r="D16" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H12">
+      <c r="H16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="11">
         <v>817</v>
       </c>
-      <c r="I12">
+      <c r="D17">
         <v>762</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H13">
+      <c r="H17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17">
+        <v>0.61876426273667606</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C18" s="11">
         <v>848</v>
       </c>
-      <c r="I13">
+      <c r="D18">
         <v>827</v>
       </c>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="O13" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H14">
+      <c r="H18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18">
+        <v>0.27213729379742696</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C19" s="11">
         <v>871</v>
       </c>
-      <c r="I14">
+      <c r="D19">
         <v>871</v>
       </c>
-      <c r="M14" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="N14" s="10">
-        <v>1960.5555555555557</v>
-      </c>
-      <c r="O14" s="10">
-        <v>1927.1666666666667</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H15">
+      <c r="H19" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19">
+        <v>1.7396067260750732</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C20" s="11">
         <v>891</v>
       </c>
-      <c r="I15">
+      <c r="D20">
         <v>854</v>
       </c>
-      <c r="M15" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="N15" s="10">
-        <v>803053.20261437923</v>
-      </c>
-      <c r="O15" s="10">
-        <v>734541.5588235294</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H16">
+      <c r="H20" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20" s="14">
+        <v>0.54427458759485392</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="11">
         <v>1034</v>
       </c>
-      <c r="I16">
+      <c r="D21">
         <v>906</v>
       </c>
-      <c r="M16" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="N16" s="10">
-        <v>18</v>
-      </c>
-      <c r="O16" s="10">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H17">
+      <c r="H21" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="9">
+        <v>2.109815577833317</v>
+      </c>
+      <c r="J21" s="9"/>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C22" s="11">
         <v>1022</v>
       </c>
-      <c r="I17">
+      <c r="D22">
         <v>1086</v>
       </c>
-      <c r="M17" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="N17" s="10">
-        <v>0.96687365281432625</v>
-      </c>
-      <c r="O17" s="10"/>
-    </row>
-    <row r="18" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H18">
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C23" s="11">
         <v>1033</v>
       </c>
-      <c r="I18">
+      <c r="D23">
         <v>1023</v>
       </c>
-      <c r="M18" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="N18" s="10">
-        <v>0</v>
-      </c>
-      <c r="O18" s="10"/>
-    </row>
-    <row r="19" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H19">
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C24" s="11">
         <v>2180</v>
       </c>
-      <c r="I19">
+      <c r="D24">
         <v>2400</v>
       </c>
-      <c r="M19" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="N19" s="10">
-        <v>17</v>
-      </c>
-      <c r="O19" s="10"/>
-    </row>
-    <row r="20" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H20">
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C25" s="11">
         <v>2230</v>
       </c>
-      <c r="I20">
+      <c r="D25">
         <v>2450</v>
       </c>
-      <c r="M20" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="N20" s="10">
-        <v>0.61876426273667606</v>
-      </c>
-      <c r="O20" s="10"/>
-    </row>
-    <row r="21" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H21">
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C26" s="11">
         <v>2240</v>
       </c>
-      <c r="I21">
+      <c r="D26">
         <v>2430</v>
       </c>
-      <c r="M21" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="N21" s="10">
-        <v>0.27213729379742696</v>
-      </c>
-      <c r="O21" s="10"/>
-    </row>
-    <row r="22" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H22">
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C27" s="11">
         <v>2920</v>
       </c>
-      <c r="I22">
+      <c r="D27">
         <v>2400</v>
       </c>
-      <c r="M22" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="N22" s="10">
-        <v>1.7396067260750732</v>
-      </c>
-      <c r="O22" s="10"/>
-    </row>
-    <row r="23" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H23">
+    </row>
+    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C28" s="11">
         <v>2910</v>
       </c>
-      <c r="I23">
+      <c r="D28">
         <v>2420</v>
       </c>
-      <c r="M23" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="N23" s="10">
-        <v>0.54427458759485392</v>
-      </c>
-      <c r="O23" s="10"/>
-    </row>
-    <row r="24" spans="8:15" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H24">
+    </row>
+    <row r="29" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C29" s="11">
         <v>2170</v>
       </c>
-      <c r="I24">
+      <c r="D29">
         <v>2480</v>
       </c>
-      <c r="M24" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="N24" s="11">
-        <v>2.109815577833317</v>
-      </c>
-      <c r="O24" s="11"/>
-    </row>
-    <row r="25" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H25">
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C30" s="11">
         <v>2400</v>
       </c>
-      <c r="I25">
+      <c r="D30">
         <v>2450</v>
       </c>
     </row>
-    <row r="26" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H26">
+    <row r="31" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C31" s="11">
         <v>3120</v>
       </c>
-      <c r="I26">
+      <c r="D31">
         <v>2890</v>
       </c>
     </row>
-    <row r="27" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H27">
+    <row r="32" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C32" s="11">
         <v>3130</v>
       </c>
-      <c r="I27">
+      <c r="D32">
         <v>2850</v>
       </c>
     </row>
-    <row r="28" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H28">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33" s="11">
         <v>2729</v>
       </c>
-      <c r="I28">
+      <c r="D33">
         <v>2840</v>
       </c>
     </row>
-    <row r="29" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H29">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C34" s="11">
         <v>2745</v>
       </c>
-      <c r="I29">
+      <c r="D34">
         <v>2750</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C17:D34">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>MOD(ROW(C17)-ROW($C$16),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1398,7 +1961,7 @@
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
@@ -1429,7 +1992,7 @@
       </c>
       <c r="B3" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">HD_Date</f>
-        <v>30-May-2024</v>
+        <v>31-May-2024</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -1565,19 +2128,15 @@
       <c r="B19" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20">
         <v>1</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9">
+      <c r="F20">
         <v>1</v>
       </c>
     </row>
@@ -1585,11 +2144,10 @@
       <c r="C21">
         <v>2</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9">
+      <c r="E21">
         <v>2</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21">
         <v>2</v>
       </c>
     </row>
@@ -1597,19 +2155,15 @@
       <c r="B22" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>1</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23">
         <v>3</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9">
+      <c r="F23">
         <v>3</v>
       </c>
     </row>
@@ -1617,11 +2171,10 @@
       <c r="C24">
         <v>2</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9">
+      <c r="E24">
         <v>4</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24">
         <v>4</v>
       </c>
     </row>
@@ -1629,19 +2182,15 @@
       <c r="B25" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26">
         <v>5</v>
       </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9">
+      <c r="F26">
         <v>5</v>
       </c>
     </row>
@@ -1649,11 +2198,10 @@
       <c r="C27">
         <v>2</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9">
+      <c r="E27">
         <v>6</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27">
         <v>6</v>
       </c>
     </row>
@@ -1661,13 +2209,13 @@
       <c r="B28" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28">
         <v>9</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28">
         <v>12</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28">
         <v>21</v>
       </c>
     </row>
@@ -1740,7 +2288,7 @@
       </c>
       <c r="B3" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">HD_Date</f>
-        <v>30-May-2024</v>
+        <v>31-May-2024</v>
       </c>
       <c r="C3" s="2"/>
     </row>
